--- a/fhir/core/StructureDefinition-ipa-dk-core-practitionerrole.xlsx
+++ b/fhir/core/StructureDefinition-ipa-dk-core-practitionerrole.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -609,7 +609,7 @@
     <t>The role a person plays representing an organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/practitioner-role</t>
+    <t>http://hl7.org/fhir/ValueSet/practitioner-role|4.0.1</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -630,7 +630,7 @@
     <t>Specific specialty associated with the agency.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -667,7 +667,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(HealthcareService)
+    <t xml:space="preserve">Reference(HealthcareService|4.0.1)
 </t>
   </si>
   <si>
@@ -866,7 +866,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1192,17 +1192,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.69140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.55078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.55078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.82421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="60.23046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1211,26 +1211,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.8359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="42.125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="91.0390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="74.71875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="185.46875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="78.53125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="64.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="159.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
